--- a/Documentación/Requerimientos del sistema.xlsx
+++ b/Documentación/Requerimientos del sistema.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,10 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8508"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8508" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Requerimientos Aplicación UAF" sheetId="1" r:id="rId1"/>
+    <sheet name="Req 6" sheetId="2" r:id="rId2"/>
+    <sheet name="Req 16" sheetId="3" r:id="rId3"/>
+    <sheet name="Req 20" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="125">
   <si>
     <t>Id</t>
   </si>
@@ -223,9 +226,6 @@
     <t>Evaluación</t>
   </si>
   <si>
-    <t>Revisión del requerimiento</t>
-  </si>
-  <si>
     <t>El sistema deberá mostrar los siguientes indicadores para el usuario visitante: FIUS, UAF mínima y mínima intregral, UAF máxima y máxima intregral</t>
   </si>
   <si>
@@ -247,12 +247,6 @@
     <t>El sistema deberá mostrar la información de los siguientes datos del sistema productivo por medio de gráficos: "Utilidad", "Flujo de Caja", "Ingresos" y "Costos"</t>
   </si>
   <si>
-    <t>Realizar el levantamiento con Carlos.</t>
-  </si>
-  <si>
-    <t>Ingresos año 1</t>
-  </si>
-  <si>
     <t>El sistema deberá mostrar el costo de establecimiento del sistema productivo tales como: "Costo", "Valor Unitario", "Cantidad Establecimiento", "Valor Establecimiento" y "Total"</t>
   </si>
   <si>
@@ -263,6 +257,174 @@
   </si>
   <si>
     <t>El sistema deberá validar la entrada y el tipo de datos en cada campo de los formularios expuestos</t>
+  </si>
+  <si>
+    <t>Debido a la nueva manera de ingresar productos, no se tienen las caracteristicas: Variedad, Densidad del producto, Fertilización, tipo de cultivo, entre otros.</t>
+  </si>
+  <si>
+    <t>SI se aprueba, se puede meter en la sección de ¿Quiénes somos?</t>
+  </si>
+  <si>
+    <t>Se enviaron las variables del estudio socioeconómico. Falta definición para el día 26/01/2017.  Se requiere explicación de las mismas y adicional si es un valor por municipio</t>
+  </si>
+  <si>
+    <t>Criterios de recomendación</t>
+  </si>
+  <si>
+    <t>Periodos con Utilidad Negativa</t>
+  </si>
+  <si>
+    <t>Acción</t>
+  </si>
+  <si>
+    <t>Mensaje</t>
+  </si>
+  <si>
+    <t>Periodos con Flujo de caja Negativo</t>
+  </si>
+  <si>
+    <t>Recomendación</t>
+  </si>
+  <si>
+    <t>Bloqueante.</t>
+  </si>
+  <si>
+    <t>Dudas y sugerencias</t>
+  </si>
+  <si>
+    <t>Indicadores UAF negativos. Utilidad Total Negativa</t>
+  </si>
+  <si>
+    <t>Bloqueantes mostrar los periodos con utilidad negativa?</t>
+  </si>
+  <si>
+    <t>Mostrar recomendaciones a nivel de ingresos, de costos o de utilidad?</t>
+  </si>
+  <si>
+    <t>Departamentos</t>
+  </si>
+  <si>
+    <t>Filtros</t>
+  </si>
+  <si>
+    <t>Reportes</t>
+  </si>
+  <si>
+    <t>ZRH</t>
+  </si>
+  <si>
+    <t>Contenidos</t>
+  </si>
+  <si>
+    <t>Características</t>
+  </si>
+  <si>
+    <t>Estudio Socioeconómico</t>
+  </si>
+  <si>
+    <t>Sistemas Productivos</t>
+  </si>
+  <si>
+    <t>Sistema Productivo</t>
+  </si>
+  <si>
+    <t>Ingresos</t>
+  </si>
+  <si>
+    <t>Egresos</t>
+  </si>
+  <si>
+    <t>Utilidad</t>
+  </si>
+  <si>
+    <t>Flujo de Caja</t>
+  </si>
+  <si>
+    <t>Indicadores</t>
+  </si>
+  <si>
+    <t>Sistema Productivo (#)</t>
+  </si>
+  <si>
+    <t>Producto 1</t>
+  </si>
+  <si>
+    <t>Producto 2</t>
+  </si>
+  <si>
+    <t>Producto 3</t>
+  </si>
+  <si>
+    <t>Producto 4</t>
+  </si>
+  <si>
+    <t>Producto 5</t>
+  </si>
+  <si>
+    <t>Producto 6</t>
+  </si>
+  <si>
+    <t>Producto 7</t>
+  </si>
+  <si>
+    <t>Producto 8</t>
+  </si>
+  <si>
+    <t>Producto 9</t>
+  </si>
+  <si>
+    <t>Producto 10</t>
+  </si>
+  <si>
+    <t>Año 0</t>
+  </si>
+  <si>
+    <t>Año 2</t>
+  </si>
+  <si>
+    <t>Año 1</t>
+  </si>
+  <si>
+    <t>Año 3</t>
+  </si>
+  <si>
+    <t>Año 4</t>
+  </si>
+  <si>
+    <t>Año 5</t>
+  </si>
+  <si>
+    <t>Año 6</t>
+  </si>
+  <si>
+    <t>Año 7</t>
+  </si>
+  <si>
+    <t>Año 8</t>
+  </si>
+  <si>
+    <t>Año 9</t>
+  </si>
+  <si>
+    <t>Año 10</t>
+  </si>
+  <si>
+    <t>Año 11</t>
+  </si>
+  <si>
+    <t>Año 12</t>
+  </si>
+  <si>
+    <t>Sobre que UAF se haría?</t>
+  </si>
+  <si>
+    <t>Conocer la cantidad de producto por área. Agregar característica al producto</t>
+  </si>
+  <si>
+    <t>Se haría sobre la cantidad de productos de todo el cíclo?</t>
+  </si>
+  <si>
+    <t>PDF</t>
   </si>
 </sst>
 </file>
@@ -390,7 +552,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -446,6 +608,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,6 +657,4134 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Propuesta</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 1: Consolidado por producto</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Req 20'!$B$4:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Producto 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Producto 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Producto 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Producto 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Producto 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Producto 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Producto 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Producto 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Producto 9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Producto 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Req 20'!$C$4:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E73E-4408-B584-247A829F0E18}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:axId val="640102815"/>
+        <c:axId val="845496239"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="640102815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="845496239"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="845496239"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="640102815"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Propuesta 2: Producto</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" baseline="0"/>
+              <a:t> por Año</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14949821107287739"/>
+          <c:y val="0.21256257802939471"/>
+          <c:w val="0.8259920051262053"/>
+          <c:h val="0.73229108724046854"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Req 20'!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Producto 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Req 20'!$C$20:$O$20</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Año 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Año 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Año 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Año 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Año 4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Año 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Año 6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Año 7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Año 8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Año 9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Año 10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Año 11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Año 12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Req 20'!$C$21:$O$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4953-4DCD-98C8-5879A0D9F5C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Req 20'!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Producto 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Req 20'!$C$20:$O$20</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Año 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Año 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Año 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Año 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Año 4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Año 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Año 6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Año 7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Año 8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Año 9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Año 10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Año 11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Año 12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Req 20'!$C$22:$O$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4953-4DCD-98C8-5879A0D9F5C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Req 20'!$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Producto 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Req 20'!$C$20:$O$20</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Año 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Año 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Año 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Año 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Año 4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Año 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Año 6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Año 7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Año 8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Año 9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Año 10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Año 11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Año 12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Req 20'!$C$23:$O$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4953-4DCD-98C8-5879A0D9F5C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Req 20'!$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Producto 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Req 20'!$C$20:$O$20</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Año 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Año 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Año 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Año 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Año 4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Año 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Año 6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Año 7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Año 8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Año 9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Año 10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Año 11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Año 12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Req 20'!$C$24:$O$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4953-4DCD-98C8-5879A0D9F5C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Req 20'!$B$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Producto 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Req 20'!$C$20:$O$20</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Año 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Año 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Año 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Año 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Año 4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Año 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Año 6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Año 7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Año 8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Año 9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Año 10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Año 11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Año 12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Req 20'!$C$25:$O$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-4953-4DCD-98C8-5879A0D9F5C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Req 20'!$B$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Producto 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Req 20'!$C$20:$O$20</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Año 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Año 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Año 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Año 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Año 4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Año 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Año 6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Año 7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Año 8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Año 9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Año 10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Año 11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Año 12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Req 20'!$C$26:$O$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-4953-4DCD-98C8-5879A0D9F5C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Req 20'!$B$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Producto 7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Req 20'!$C$20:$O$20</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Año 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Año 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Año 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Año 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Año 4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Año 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Año 6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Año 7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Año 8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Año 9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Año 10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Año 11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Año 12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Req 20'!$C$27:$O$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-4953-4DCD-98C8-5879A0D9F5C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Req 20'!$B$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Producto 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Req 20'!$C$20:$O$20</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Año 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Año 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Año 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Año 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Año 4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Año 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Año 6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Año 7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Año 8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Año 9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Año 10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Año 11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Año 12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Req 20'!$C$28:$O$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-4953-4DCD-98C8-5879A0D9F5C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Req 20'!$B$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Producto 9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Req 20'!$C$20:$O$20</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Año 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Año 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Año 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Año 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Año 4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Año 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Año 6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Año 7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Año 8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Año 9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Año 10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Año 11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Año 12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Req 20'!$C$29:$O$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-4953-4DCD-98C8-5879A0D9F5C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="803636991"/>
+        <c:axId val="804618191"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="803636991"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="804618191"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="804618191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="803636991"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Propuesta</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" baseline="0"/>
+              <a:t> 3: Porcentaje del área</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Req 20'!$M$4:$M$13</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Producto 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Producto 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Producto 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Producto 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Producto 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Producto 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Producto 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Producto 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Producto 9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Producto 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Req 20'!$N$4:$N$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-89FA-4D92-83CD-9611629231A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="78000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:pattFill prst="dkDnDiag">
+      <a:fgClr>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:fgClr>
+      <a:bgClr>
+        <a:schemeClr val="lt1"/>
+      </a:bgClr>
+    </a:pattFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="206">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="261">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="dkDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="25000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="matte"/>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="78000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFC0F53C-9ED6-4429-B0C8-DDBF47B1E2B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E21DE21-41D6-46F3-8F42-7244C5604AD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88DD5B52-30EA-4273-A86B-14EE5995C55F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -790,8 +5086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -972,10 +5268,10 @@
         <v>28</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1161,7 +5457,7 @@
       </c>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -1177,11 +5473,11 @@
       <c r="E20" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F20" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -1206,7 +5502,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>18</v>
@@ -1217,15 +5513,13 @@
       <c r="E22" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -1237,8 +5531,8 @@
       <c r="E23" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>58</v>
+      <c r="F23" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -1246,7 +5540,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>18</v>
@@ -1264,7 +5558,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>18</v>
@@ -1282,7 +5576,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>18</v>
@@ -1300,16 +5594,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="16" t="s">
-        <v>57</v>
+      <c r="E27" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="F27" s="5"/>
     </row>
@@ -1318,16 +5612,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E28" s="16" t="s">
-        <v>57</v>
+      <c r="E28" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="F28" s="5"/>
     </row>
@@ -1336,10 +5630,10 @@
         <v>29</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>21</v>
@@ -1347,7 +5641,9 @@
       <c r="E29" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="F29" s="6"/>
+      <c r="F29" s="6" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
@@ -1369,4 +5665,779 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="59" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="21"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="21"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="21"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C4" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C14" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:W29"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="W10" sqref="W10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="35.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:23" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="M4" t="s">
+        <v>98</v>
+      </c>
+      <c r="N4">
+        <v>10</v>
+      </c>
+      <c r="W4" s="22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="M5" t="s">
+        <v>99</v>
+      </c>
+      <c r="N5">
+        <v>15</v>
+      </c>
+      <c r="W5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="M6" t="s">
+        <v>100</v>
+      </c>
+      <c r="N6">
+        <v>5</v>
+      </c>
+      <c r="W6" s="22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="M7" t="s">
+        <v>101</v>
+      </c>
+      <c r="N7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="M8" t="s">
+        <v>102</v>
+      </c>
+      <c r="N8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="M9" t="s">
+        <v>103</v>
+      </c>
+      <c r="N9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="M10" t="s">
+        <v>104</v>
+      </c>
+      <c r="N10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="M11" t="s">
+        <v>105</v>
+      </c>
+      <c r="N11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="M12" t="s">
+        <v>106</v>
+      </c>
+      <c r="N12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="M13" t="s">
+        <v>107</v>
+      </c>
+      <c r="N13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" t="s">
+        <v>109</v>
+      </c>
+      <c r="F20" t="s">
+        <v>111</v>
+      </c>
+      <c r="G20" t="s">
+        <v>112</v>
+      </c>
+      <c r="H20" t="s">
+        <v>113</v>
+      </c>
+      <c r="I20" t="s">
+        <v>114</v>
+      </c>
+      <c r="J20" t="s">
+        <v>115</v>
+      </c>
+      <c r="K20" t="s">
+        <v>116</v>
+      </c>
+      <c r="L20" t="s">
+        <v>117</v>
+      </c>
+      <c r="M20" t="s">
+        <v>118</v>
+      </c>
+      <c r="N20" t="s">
+        <v>119</v>
+      </c>
+      <c r="O20" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21">
+        <v>6</v>
+      </c>
+      <c r="H21">
+        <v>6</v>
+      </c>
+      <c r="I21">
+        <v>6</v>
+      </c>
+      <c r="J21">
+        <v>4</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>2</v>
+      </c>
+      <c r="M21">
+        <v>5</v>
+      </c>
+      <c r="N21">
+        <v>8</v>
+      </c>
+      <c r="O21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>6</v>
+      </c>
+      <c r="G22">
+        <v>4</v>
+      </c>
+      <c r="H22">
+        <v>6</v>
+      </c>
+      <c r="I22">
+        <v>5</v>
+      </c>
+      <c r="J22">
+        <v>8</v>
+      </c>
+      <c r="K22">
+        <v>7</v>
+      </c>
+      <c r="L22">
+        <v>7</v>
+      </c>
+      <c r="M22">
+        <v>7</v>
+      </c>
+      <c r="N22">
+        <v>7</v>
+      </c>
+      <c r="O22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>6</v>
+      </c>
+      <c r="F23">
+        <v>6</v>
+      </c>
+      <c r="G23">
+        <v>6</v>
+      </c>
+      <c r="H23">
+        <v>6</v>
+      </c>
+      <c r="I23">
+        <v>7</v>
+      </c>
+      <c r="J23">
+        <v>7</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>5</v>
+      </c>
+      <c r="M23">
+        <v>6</v>
+      </c>
+      <c r="N23">
+        <v>2</v>
+      </c>
+      <c r="O23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+      <c r="G24">
+        <v>6</v>
+      </c>
+      <c r="H24">
+        <v>6</v>
+      </c>
+      <c r="I24">
+        <v>6</v>
+      </c>
+      <c r="J24">
+        <v>4</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>2</v>
+      </c>
+      <c r="M24">
+        <v>5</v>
+      </c>
+      <c r="N24">
+        <v>8</v>
+      </c>
+      <c r="O24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>6</v>
+      </c>
+      <c r="G25">
+        <v>4</v>
+      </c>
+      <c r="H25">
+        <v>6</v>
+      </c>
+      <c r="I25">
+        <v>5</v>
+      </c>
+      <c r="J25">
+        <v>8</v>
+      </c>
+      <c r="K25">
+        <v>7</v>
+      </c>
+      <c r="L25">
+        <v>7</v>
+      </c>
+      <c r="M25">
+        <v>7</v>
+      </c>
+      <c r="N25">
+        <v>7</v>
+      </c>
+      <c r="O25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>6</v>
+      </c>
+      <c r="F26">
+        <v>6</v>
+      </c>
+      <c r="G26">
+        <v>6</v>
+      </c>
+      <c r="H26">
+        <v>6</v>
+      </c>
+      <c r="I26">
+        <v>7</v>
+      </c>
+      <c r="J26">
+        <v>7</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>5</v>
+      </c>
+      <c r="M26">
+        <v>6</v>
+      </c>
+      <c r="N26">
+        <v>2</v>
+      </c>
+      <c r="O26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+      <c r="G27">
+        <v>6</v>
+      </c>
+      <c r="H27">
+        <v>6</v>
+      </c>
+      <c r="I27">
+        <v>6</v>
+      </c>
+      <c r="J27">
+        <v>4</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>2</v>
+      </c>
+      <c r="M27">
+        <v>5</v>
+      </c>
+      <c r="N27">
+        <v>8</v>
+      </c>
+      <c r="O27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>6</v>
+      </c>
+      <c r="G28">
+        <v>4</v>
+      </c>
+      <c r="H28">
+        <v>6</v>
+      </c>
+      <c r="I28">
+        <v>5</v>
+      </c>
+      <c r="J28">
+        <v>8</v>
+      </c>
+      <c r="K28">
+        <v>7</v>
+      </c>
+      <c r="L28">
+        <v>7</v>
+      </c>
+      <c r="M28">
+        <v>7</v>
+      </c>
+      <c r="N28">
+        <v>7</v>
+      </c>
+      <c r="O28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>6</v>
+      </c>
+      <c r="F29">
+        <v>6</v>
+      </c>
+      <c r="G29">
+        <v>6</v>
+      </c>
+      <c r="H29">
+        <v>6</v>
+      </c>
+      <c r="I29">
+        <v>7</v>
+      </c>
+      <c r="J29">
+        <v>7</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>5</v>
+      </c>
+      <c r="M29">
+        <v>6</v>
+      </c>
+      <c r="N29">
+        <v>2</v>
+      </c>
+      <c r="O29">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>